--- a/data/report/report.xlsx
+++ b/data/report/report.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-10-23" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2025-10-24" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,9 +441,9 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#PETR4 | ⬇️ SELL (SMA5/10) Duration 16 | Price R$30.19
-Volume Strength: 0.24
-Signal Confirmation: 0/6 BUY, 6/6 SELL
+          <t>PETR4 | ⬇️ SELL (SMA20/50) Duration 3 | Price R$30.19
+Volume Strength: 0.25
+Signal Confirmation: 4/6 BUY, 2/6 SELL
 Predicted Price: R$ 30.35</t>
         </is>
       </c>
@@ -451,10 +451,90 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>#VALE3 | ⬆️ BUY (SMA20/50) Duration 70 | Price R$61.76
+          <t>VALE3 | ⬆️ BUY (SMA20/50) Duration 70 | Price R$61.76
 Volume Strength: -0.48
 Signal Confirmation: 0/6 BUY, 6/6 SELL
 Predicted Price: R$ 61.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ITUB4 | ⬇️ SELL (SMA20/45) Duration 3 | Price R$38.08
+Volume Strength: -0.31
+Signal Confirmation: 0/6 BUY, 6/6 SELL
+Predicted Price: R$ 38.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BBDC4 | ⬆️ BUY (SMA20/50) Duration 40 | Price R$17.98
+Volume Strength: -0.22
+Signal Confirmation: 0/6 BUY, 6/6 SELL
+Predicted Price: R$ 17.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ABEV3 | ⬇️ SELL (SMA10/25) Duration 16 | Price R$12.12
+Volume Strength: 0.06
+Signal Confirmation: 4/6 BUY, 2/6 SELL
+Predicted Price: R$ 12.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BBAS3 | ⬆️ BUY (SMA20/50) Duration 34 | Price R$20.65
+Volume Strength: -0.60
+Signal Confirmation: 5/6 BUY, 1/6 SELL
+Predicted Price: R$ 20.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>WEGE3 | ⬆️ BUY (SMA20/45) Duration 3 | Price R$41.44
+Volume Strength: 0.18
+Signal Confirmation: 1/6 BUY, 5/6 SELL
+Predicted Price: R$ 41.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PRIO3 | ⬇️ SELL (SMA20/50) Duration 57 | Price R$36.86
+Volume Strength: -0.25
+Signal Confirmation: 4/6 BUY, 2/6 SELL
+Predicted Price: R$ 36.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B3SA3 | ⬇️ SELL (SMA20/45) Duration 5 | Price R$12.59
+Volume Strength: -0.13
+Signal Confirmation: 3/6 BUY, 3/6 SELL
+Predicted Price: R$ 12.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SUZB3 | ⬇️ SELL (WMA10/30) Duration 40 | Price R$48.67
+Volume Strength: -0.34
+Signal Confirmation: 3/6 BUY, 3/6 SELL
+Predicted Price: R$ 48.28</t>
         </is>
       </c>
     </row>
